--- a/1.analisis_estadistico/plots/Medellin/tablas_porcentajes.xlsx
+++ b/1.analisis_estadistico/plots/Medellin/tablas_porcentajes.xlsx
@@ -11,6 +11,7 @@
     <sheet name="genero_%" sheetId="2" r:id="rId2"/>
     <sheet name="estrato_%" sheetId="3" r:id="rId3"/>
     <sheet name="p17_modo_%" sheetId="4" r:id="rId4"/>
+    <sheet name="p17_modo_agr_%" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -553,7 +554,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -579,40 +580,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="B2">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>79.85611510791367</v>
+        <v>26.378896882494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>Bus, colectivo, buseta</t>
         </is>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C3">
-        <v>19.90407673860911</v>
+        <v>23.26139088729017</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No sabe, No responde</t>
+          <t>Moto 4T</t>
         </is>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>0.2398081534772182</v>
+        <v>17.26618705035971</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Taxi</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>6.235011990407674</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Metroplus</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>5.51558752997602</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AutomÃ³vil</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>4.556354916067146</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AutomÃ³vil en plataforma (Ejemplo:Uber, Yango, Didi, InDriver)</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>4.316546762589928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Moto 2T</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>3.836930455635492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Caminata</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3.357314148681055</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>3.357314148681055</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Plataforma (Moto)</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1.918465227817746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>cat</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Transporte público formal</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>236</v>
+      </c>
+      <c r="C2">
+        <v>56.5947242206235</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Motos</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>23.02158273381295</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Autos</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>11.03117505995204</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>9.352517985611511</v>
       </c>
     </row>
   </sheetData>
